--- a/biology/Botanique/Nitella_flexilis/Nitella_flexilis.xlsx
+++ b/biology/Botanique/Nitella_flexilis/Nitella_flexilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nitella flexilis, aussi connue sous le nom de Nitelle flexible, est une espèce d’algues d'eau douce de la famille des Characeae.
 </t>
@@ -511,11 +523,13 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nitelle flexible, monde francophone[4]
-Himefurasukomo, Japon[5]
-Smooth stonewort, monde anglophone[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nitelle flexible, monde francophone
+Himefurasukomo, Japon
+Smooth stonewort, monde anglophone</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce d'algues vertes Nitella flexilis peuple les étendues d'eau des continents européen, américain, océanien et asiatique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce d'algues vertes Nitella flexilis peuple les étendues d'eau des continents européen, américain, océanien et asiatique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une protéine similaire à la « myosine B » a été identifiée dans les cellules de Nitella flexilis[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une protéine similaire à la « myosine B » a été identifiée dans les cellules de Nitella flexilis.
 </t>
         </is>
       </c>
@@ -605,12 +623,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 août 2017)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 août 2017) :
 variété Nitella flexilis var. bifurcata ;
 variété Nitella flexilis var. flexilis.
-Selon World Register of Marine Species                               (8 août 2017)[2] :
+Selon World Register of Marine Species                               (8 août 2017) :
 variété Nitella flexilis var. californica (T.F.Allen) J.C.van Raam, 2010 ;
 variété Nitella flexilis var. dailyana (R.D.Wood) J.C.van Raam, 2010 ;
 variété Nitella flexilis var. flexilis ;
